--- a/Defaults/p10.xlsx
+++ b/Defaults/p10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AB35F-B1D5-44FB-8F2F-D081609AA3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBABDC-5382-4902-A53A-FFB8C87B2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19939" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20040" uniqueCount="2295">
   <si>
     <t>Layer</t>
   </si>
@@ -6902,9 +6902,6 @@
     <t>vars()['CLASSID'] in [706010100] and vars()['FOREST_CAT']== 4</t>
   </si>
   <si>
-    <t>LayerName</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -6912,6 +6909,24 @@
   </si>
   <si>
     <t>2030/01/01</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Borders</t>
+  </si>
+  <si>
+    <t>ElectricLine.</t>
+  </si>
+  <si>
+    <t>TerritorialZone</t>
+  </si>
+  <si>
+    <t>Oks_social</t>
+  </si>
+  <si>
+    <t>Остальное</t>
   </si>
 </sst>
 </file>
@@ -7232,7 +7247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F67524-F880-4EF4-8A4C-D55F0E02008E}">
   <dimension ref="A1:I1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -7270,7 +7285,7 @@
         <v>2171</v>
       </c>
       <c r="H1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -34272,7 +34287,7 @@
         <v>2179</v>
       </c>
       <c r="H1208" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="I1208" t="s">
         <v>12</v>
@@ -34298,7 +34313,7 @@
         <v>2179</v>
       </c>
       <c r="H1209" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="I1209" t="s">
         <v>12</v>
@@ -81371,495 +81386,807 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87CD2B-C08A-47EB-AC8F-AFAEEBE09A8C}">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>2005</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2294</v>
       </c>
     </row>
   </sheetData>

--- a/Defaults/p10.xlsx
+++ b/Defaults/p10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBABDC-5382-4902-A53A-FFB8C87B2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4592D-638C-4546-A031-0CE144FFA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20040" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20038" uniqueCount="2309">
   <si>
     <t>Layer</t>
   </si>
@@ -6917,16 +6917,58 @@
     <t>Borders</t>
   </si>
   <si>
-    <t>ElectricLine.</t>
-  </si>
-  <si>
     <t>TerritorialZone</t>
   </si>
   <si>
     <t>Oks_social</t>
   </si>
   <si>
-    <t>Остальное</t>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>SpecialUseTerritory</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>ProtectArea</t>
+  </si>
+  <si>
+    <t>RiskZone</t>
+  </si>
+  <si>
+    <t>EconomicArea</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>SpecailArea</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>EnvironmentProtection</t>
+  </si>
+  <si>
+    <t>Nature</t>
   </si>
 </sst>
 </file>
@@ -81386,10 +81428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87CD2B-C08A-47EB-AC8F-AFAEEBE09A8C}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81450,7 +81492,7 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -81458,7 +81500,7 @@
         <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -81466,7 +81508,7 @@
         <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -81474,7 +81516,7 @@
         <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -81482,7 +81524,7 @@
         <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -81490,7 +81532,7 @@
         <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -81498,7 +81540,7 @@
         <v>445</v>
       </c>
       <c r="B13" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -81506,7 +81548,7 @@
         <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -81514,7 +81556,7 @@
         <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -81522,7 +81564,7 @@
         <v>541</v>
       </c>
       <c r="B16" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -81530,7 +81572,7 @@
         <v>575</v>
       </c>
       <c r="B17" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -81538,7 +81580,7 @@
         <v>631</v>
       </c>
       <c r="B18" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -81546,7 +81588,7 @@
         <v>650</v>
       </c>
       <c r="B19" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -81682,7 +81724,7 @@
         <v>1044</v>
       </c>
       <c r="B36" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -81690,503 +81732,495 @@
         <v>1086</v>
       </c>
       <c r="B37" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2291</v>
+        <v>1122</v>
       </c>
       <c r="B38" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1122</v>
+        <v>1152</v>
       </c>
       <c r="B39" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="B40" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1169</v>
+        <v>1189</v>
       </c>
       <c r="B41" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="B42" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="B43" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="B44" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="B45" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="B46" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1241</v>
+        <v>1260</v>
       </c>
       <c r="B47" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="B48" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="B49" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="B50" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="B51" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="B52" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
       <c r="B53" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1335</v>
+        <v>1380</v>
       </c>
       <c r="B54" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1380</v>
+        <v>1395</v>
       </c>
       <c r="B55" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1395</v>
+        <v>1443</v>
       </c>
       <c r="B56" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1443</v>
+        <v>1469</v>
       </c>
       <c r="B57" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B58" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B59" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="B60" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1480</v>
+        <v>1498</v>
       </c>
       <c r="B61" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
       <c r="B62" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B63" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="B64" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="B65" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1522</v>
+        <v>1533</v>
       </c>
       <c r="B66" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B67" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="B68" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="B69" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="B70" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B71" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B72" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B73" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1557</v>
+        <v>1571</v>
       </c>
       <c r="B74" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B75" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="B76" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="B77" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1593</v>
+        <v>1645</v>
       </c>
       <c r="B78" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
       <c r="B79" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
       <c r="B80" t="s">
-        <v>2294</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1665</v>
+        <v>1677</v>
       </c>
       <c r="B81" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1677</v>
+        <v>1691</v>
       </c>
       <c r="B82" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1691</v>
+        <v>1702</v>
       </c>
       <c r="B83" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1702</v>
+        <v>1764</v>
       </c>
       <c r="B84" t="s">
-        <v>2294</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="B85" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1772</v>
+        <v>1787</v>
       </c>
       <c r="B86" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1787</v>
+        <v>1823</v>
       </c>
       <c r="B87" t="s">
-        <v>2294</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1823</v>
+        <v>1923</v>
       </c>
       <c r="B88" t="s">
-        <v>2294</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="B89" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B90" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B91" t="s">
-        <v>2294</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1935</v>
+        <v>1945</v>
       </c>
       <c r="B92" t="s">
-        <v>2294</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1945</v>
+        <v>1951</v>
       </c>
       <c r="B93" t="s">
-        <v>2294</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1951</v>
+        <v>1963</v>
       </c>
       <c r="B94" t="s">
-        <v>2294</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B95" t="s">
-        <v>2294</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="B96" t="s">
-        <v>2294</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1969</v>
+        <v>2005</v>
       </c>
       <c r="B97" t="s">
-        <v>2294</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2005</v>
+        <v>2291</v>
       </c>
       <c r="B98" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
   </sheetData>

--- a/Defaults/p10.xlsx
+++ b/Defaults/p10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4592D-638C-4546-A031-0CE144FFA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8590E9-53AE-4C3B-A526-7E6D8EE5AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -7290,7 +7290,7 @@
   <dimension ref="A1:I1345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37382,6 +37382,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1345" xr:uid="{37F67524-F880-4EF4-8A4C-D55F0E02008E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -37391,7 +37392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D5D0F-F45A-4A8A-9CE5-6B1218C2F5E7}">
   <dimension ref="A1:C495"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42855,7 +42858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A0468-B0DC-4A9A-95B0-312A9366D73A}">
   <dimension ref="A1:C948"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -81430,7 +81435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87CD2B-C08A-47EB-AC8F-AFAEEBE09A8C}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Defaults/p10.xlsx
+++ b/Defaults/p10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C86BA1-C93D-4FB2-AA2D-FAF368E7552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC6A4F-2DD2-463D-B670-D5A680AA15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -7289,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F67524-F880-4EF4-8A4C-D55F0E02008E}">
   <dimension ref="A1:I1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42857,8 +42857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A0468-B0DC-4A9A-95B0-312A9366D73A}">
   <dimension ref="A1:C948"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Defaults/p10.xlsx
+++ b/Defaults/p10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC6A4F-2DD2-463D-B670-D5A680AA15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44115EA-9351-454F-87C7-E526A0FAD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -7289,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F67524-F880-4EF4-8A4C-D55F0E02008E}">
   <dimension ref="A1:I1345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42857,8 +42857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A0468-B0DC-4A9A-95B0-312A9366D73A}">
   <dimension ref="A1:C948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
